--- a/2025_Dhwanit_One_to_one/02 Advanced Excel/jun18.xlsx
+++ b/2025_Dhwanit_One_to_one/02 Advanced Excel/jun18.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\all_batches\2025_Dhwanit_One_to_one\02 Advanced Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC631BC-8FD0-4F94-AE71-0B837296CAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC41C31-393B-49C5-88F7-7F70196DF912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{7D584C46-7BB3-4667-BD2B-39D77655C0DD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{7D584C46-7BB3-4667-BD2B-39D77655C0DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Dhwanit" sheetId="2" r:id="rId2"/>
+    <sheet name="Marmik Patel" sheetId="3" r:id="rId3"/>
+    <sheet name="Consolidated result" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="45">
   <si>
     <t>Mon</t>
   </si>
@@ -134,13 +136,42 @@
   </si>
   <si>
     <t>Rounded to the nearest integer</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Name of the student</t>
+  </si>
+  <si>
+    <t>Total Marks</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Sr.No.</t>
+  </si>
+  <si>
+    <t>Dhwanit Garg</t>
+  </si>
+  <si>
+    <t>Marmik Patel</t>
+  </si>
+  <si>
+    <t>38 Saket-2, Near LJ College, Makaraba, Ahmedabad - 380060</t>
+  </si>
+  <si>
+    <t>40 Amish Park, 
+Opp Zydus Hospitals, 
+Scince City, Ahmedabad - 380070</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,16 +185,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -171,13 +216,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1082,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A0BF8A-A002-46B2-BD36-9F44BB10145A}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1097,7 +1166,7 @@
         <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1306,4 +1375,313 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF9181F-DEAC-4B0E-8DB0-A365A63F13F6}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>45</v>
+      </c>
+      <c r="C7">
+        <v>44</v>
+      </c>
+      <c r="D7">
+        <f>C7+B7</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>48</v>
+      </c>
+      <c r="C8">
+        <v>49</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:D13" si="0">C8+B8</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <v>45</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>49</v>
+      </c>
+      <c r="C10">
+        <v>48</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11">
+        <v>44</v>
+      </c>
+      <c r="C11">
+        <v>44</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12">
+        <v>40</v>
+      </c>
+      <c r="C12">
+        <v>45</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13">
+        <v>47</v>
+      </c>
+      <c r="C13">
+        <v>50</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <f>SUM(B7:B13)</f>
+        <v>323</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C7:C13)</f>
+        <v>325</v>
+      </c>
+      <c r="D15">
+        <f>SUM(D7:D13)</f>
+        <v>648</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <f>AVERAGE(B7:B13)</f>
+        <v>46.142857142857146</v>
+      </c>
+      <c r="C16">
+        <f>AVERAGE(C7:C13)</f>
+        <v>46.428571428571431</v>
+      </c>
+      <c r="D16">
+        <f>AVERAGE(D7:D13)</f>
+        <v>92.571428571428569</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17">
+        <f>ROUND(B16, 2)</f>
+        <v>46.14</v>
+      </c>
+      <c r="C17">
+        <f>ROUND(C16, 2)</f>
+        <v>46.43</v>
+      </c>
+      <c r="D17">
+        <f>ROUND(D16, 2)</f>
+        <v>92.57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18">
+        <f>ROUND(B16, 0)</f>
+        <v>46</v>
+      </c>
+      <c r="C18">
+        <f>ROUND(C16, 0)</f>
+        <v>46</v>
+      </c>
+      <c r="D18">
+        <f>ROUND(D16, 0)</f>
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61262B9-B1D6-4F70-8AFF-033A462CDF34}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f>Dhwanit!B1</f>
+        <v>Dhwanit Garg</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="3" t="str">
+        <f>Dhwanit!B3</f>
+        <v>One to one</v>
+      </c>
+      <c r="E2" s="3">
+        <f>Dhwanit!D18</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="str">
+        <f>'Marmik Patel'!B1</f>
+        <v>Marmik Patel</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f>'Marmik Patel'!B3</f>
+        <v>General</v>
+      </c>
+      <c r="E3" s="3">
+        <f>'Marmik Patel'!D18</f>
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>